--- a/report/graphs/graphs_main.xlsx
+++ b/report/graphs/graphs_main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="8200" yWindow="620" windowWidth="30540" windowHeight="20720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>n</t>
   </si>
@@ -35,10 +35,22 @@
     <t>Serial-Binning</t>
   </si>
   <si>
-    <t>Pthreads</t>
+    <t>OpenMP</t>
   </si>
   <si>
-    <t>OpenMP</t>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Strong Scaling</t>
+  </si>
+  <si>
+    <t>particles</t>
   </si>
 </sst>
 </file>
@@ -74,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,11 +503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118152848"/>
-        <c:axId val="-2110667584"/>
+        <c:axId val="2131310592"/>
+        <c:axId val="2131316768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118152848"/>
+        <c:axId val="2131310592"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -608,13 +623,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110667584"/>
+        <c:crossAx val="2131316768"/>
         <c:crossesAt val="0.01"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110667584"/>
+        <c:axId val="2131316768"/>
         <c:scaling>
           <c:logBase val="2.0"/>
           <c:orientation val="minMax"/>
@@ -728,7 +743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2118152848"/>
+        <c:crossAx val="2131310592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -750,6 +765,1622 @@
           <c:y val="0.7149877298197"/>
           <c:w val="0.184385113996274"/>
           <c:h val="0.144706180455333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Serial Binning vs OpenMP</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0955065698752022"/>
+          <c:y val="0.0787541688505389"/>
+          <c:w val="0.866917939078277"/>
+          <c:h val="0.831349725869639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial with Binning</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.286354303611216"/>
+                  <c:y val="0.290814516315242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>256000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.018485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.040865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.099776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.227516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.498172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.49925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.59674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.6719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.3363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>129.827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP with 12 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.031964815659649"/>
+                  <c:y val="0.183795393668222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>256000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.023236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.049006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.038799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.062072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.212837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.445699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.889951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.96877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.798809999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2124072304"/>
+        <c:axId val="-2124067088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2124072304"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="512000.0"/>
+          <c:min val="125.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124067088"/>
+        <c:crossesAt val="0.01"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124067088"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124072304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.762442021315253"/>
+          <c:y val="0.7149877298197"/>
+          <c:w val="0.237557951340166"/>
+          <c:h val="0.18950124044125"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP: Strong</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0955065698752022"/>
+          <c:y val="0.0787541688505389"/>
+          <c:w val="0.866917939078277"/>
+          <c:h val="0.831349725869639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>500 Particles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.058926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.047025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.034368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.034855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.045162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2000 Particles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.30322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.121568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.098206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.068963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.107855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>8000 Particles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.42337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.840638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.491721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.378507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.210969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.251567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>32000 Particles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$21:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$21:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.47814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.19814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.38207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.881496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.869412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>128000 Particles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$27:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65.9608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.76979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.18336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2143955792"/>
+        <c:axId val="2144309200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2143955792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144309200"/>
+        <c:crossesAt val="0.01"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144309200"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="256.0"/>
+          <c:min val="0.015625"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143955792"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.743079850701793"/>
+          <c:y val="0.0957159219871573"/>
+          <c:w val="0.131700277354781"/>
+          <c:h val="0.196275069052529"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -862,6 +2493,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1378,20 +3089,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>147107</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611091</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1405,6 +4148,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>782585</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660598</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>494673</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1676,15 +4483,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1700,8 +4513,26 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>250</v>
       </c>
@@ -1711,8 +4542,29 @@
       <c r="D3">
         <v>1.8485000000000001E-2</v>
       </c>
+      <c r="E3">
+        <v>2.3236E-2</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>5.8925999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.65196500000000002</v>
+      </c>
+      <c r="L3">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>500</v>
       </c>
@@ -1722,8 +4574,26 @@
       <c r="D4">
         <v>4.0864999999999999E-2</v>
       </c>
+      <c r="E4">
+        <v>4.9006000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4.7024999999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.83775900000000003</v>
+      </c>
+      <c r="L4">
+        <v>8000</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -1733,8 +4603,26 @@
       <c r="D5">
         <v>9.9776000000000004E-2</v>
       </c>
+      <c r="E5">
+        <v>3.8799E-2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3.4368000000000003E-2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1.077</v>
+      </c>
+      <c r="L5">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2000</v>
       </c>
@@ -1744,8 +4632,26 @@
       <c r="D6">
         <v>0.227516</v>
       </c>
+      <c r="E6">
+        <v>6.2072000000000002E-2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>3.4854999999999997E-2</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1.29095</v>
+      </c>
+      <c r="L6">
+        <v>32000</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4000</v>
       </c>
@@ -1755,8 +4661,26 @@
       <c r="D7">
         <v>0.498172</v>
       </c>
+      <c r="E7">
+        <v>0.44025999999999998</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>4.5162000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>2.5513499999999998</v>
+      </c>
+      <c r="L7">
+        <v>64000</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>8000</v>
       </c>
@@ -1766,8 +4690,26 @@
       <c r="D8">
         <v>1.14394</v>
       </c>
+      <c r="E8">
+        <v>0.212837</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>6.046E-2</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>4.1139400000000004</v>
+      </c>
+      <c r="L8">
+        <v>128000</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>16000</v>
       </c>
@@ -1777,40 +4719,252 @@
       <c r="D9">
         <v>2.49925</v>
       </c>
+      <c r="E9">
+        <v>0.44569900000000001</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.30321999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>32000</v>
       </c>
       <c r="D10">
         <v>5.5967399999999996</v>
       </c>
+      <c r="E10">
+        <v>0.88995100000000005</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0.19189800000000001</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>64000</v>
       </c>
       <c r="D11">
         <v>14.671900000000001</v>
       </c>
+      <c r="E11">
+        <v>1.9687699999999999</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0.121568</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>128000</v>
       </c>
       <c r="D12">
         <v>50.336300000000001</v>
       </c>
+      <c r="E12">
+        <v>6.7988099999999996</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>9.8206000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>256000</v>
       </c>
       <c r="D13">
         <v>129.827</v>
       </c>
+      <c r="E13">
+        <v>17.0945</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>6.8962999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>0.10785500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.42337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0.840638</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>8000</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>0.49172100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>0.37850699999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0.21096899999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0.25156699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>7.4781399999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>4.1981400000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>2.3820700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>32000</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>1.6941900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>0.88149599999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>0.86941199999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>65.960800000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>35.008699999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>18.760899999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>12.991899999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>128000</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>6.7697900000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>4.1833600000000004</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/report/graphs/graphs_main.xlsx
+++ b/report/graphs/graphs_main.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>n</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Weak Scaling</t>
   </si>
   <si>
     <t>Strong Scaling</t>
@@ -2453,6 +2456,566 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP: Weak Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0955065698752022"/>
+          <c:y val="0.0787541688505389"/>
+          <c:w val="0.866917939078277"/>
+          <c:h val="0.831349725869639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4000 particles per thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.205152348822013"/>
+                  <c:y val="0.128402905520158"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.651965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.837759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.55135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.53885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2090212048"/>
+        <c:axId val="-2097038656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2090212048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097038656"/>
+        <c:crossesAt val="0.01"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2097038656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2090212048"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.572123853352515"/>
+          <c:y val="0.101955054078525"/>
+          <c:w val="0.204356573364406"/>
+          <c:h val="0.152600889892105"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2573,6 +3136,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3606,6 +4209,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4188,15 +5307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>660598</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>681764</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>494673</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>515839</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4212,6 +5331,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215074</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4485,17 +5636,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4529,7 +5685,7 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -4642,7 +5798,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>1.29095</v>
@@ -4671,7 +5827,7 @@
         <v>4.5162000000000001E-2</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>2.5513499999999998</v>
@@ -4703,10 +5859,10 @@
         <v>24</v>
       </c>
       <c r="K8">
-        <v>4.1139400000000004</v>
+        <v>2.5388500000000001</v>
       </c>
       <c r="L8">
-        <v>128000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -4722,6 +5878,9 @@
       <c r="E9">
         <v>0.44569900000000001</v>
       </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -4739,9 +5898,6 @@
       <c r="E10">
         <v>0.88995100000000005</v>
       </c>
-      <c r="G10">
-        <v>2000</v>
-      </c>
       <c r="H10">
         <v>2</v>
       </c>
@@ -4809,6 +5965,9 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>8000</v>
+      </c>
       <c r="H15">
         <v>1</v>
       </c>
@@ -4825,9 +5984,6 @@
       </c>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G17">
-        <v>8000</v>
-      </c>
       <c r="H17">
         <v>4</v>
       </c>
@@ -4860,6 +6016,9 @@
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>32000</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
@@ -4884,9 +6043,6 @@
       </c>
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G24">
-        <v>32000</v>
-      </c>
       <c r="H24">
         <v>6</v>
       </c>
@@ -4911,6 +6067,9 @@
       </c>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>128000</v>
+      </c>
       <c r="H27">
         <v>1</v>
       </c>
@@ -4943,9 +6102,6 @@
       </c>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G31">
-        <v>128000</v>
-      </c>
       <c r="H31">
         <v>12</v>
       </c>
@@ -4962,8 +6118,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/report/graphs/graphs_main.xlsx
+++ b/report/graphs/graphs_main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="620" windowWidth="30540" windowHeight="20720" tabRatio="500"/>
+    <workbookView xWindow="6200" yWindow="580" windowWidth="30540" windowHeight="20720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>n</t>
   </si>
@@ -55,15 +55,37 @@
   <si>
     <t>particles</t>
   </si>
+  <si>
+    <t>GPU-Naïve</t>
+  </si>
+  <si>
+    <t>GPU-Binned</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,8 +108,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -95,7 +121,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1517,7 +1547,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.762442021315253"/>
           <c:y val="0.7149877298197"/>
-          <c:w val="0.237557951340166"/>
+          <c:w val="0.230628425624766"/>
           <c:h val="0.18950124044125"/>
         </c:manualLayout>
       </c:layout>
@@ -1714,7 +1744,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1741,7 +1771,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1800,7 +1830,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$9:$H$14</c:f>
+              <c:f>Sheet1!$J$9:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1827,7 +1857,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$9:$I$14</c:f>
+              <c:f>Sheet1!$K$9:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1886,7 +1916,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$15:$H$20</c:f>
+              <c:f>Sheet1!$J$15:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1913,7 +1943,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$15:$I$20</c:f>
+              <c:f>Sheet1!$K$15:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1972,7 +2002,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$21:$H$26</c:f>
+              <c:f>Sheet1!$J$21:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1999,7 +2029,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$21:$I$26</c:f>
+              <c:f>Sheet1!$K$21:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2058,7 +2088,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$27:$H$32</c:f>
+              <c:f>Sheet1!$J$27:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2085,7 +2115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$27:$I$32</c:f>
+              <c:f>Sheet1!$K$27:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2382,7 +2412,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.743079850701793"/>
           <c:y val="0.0957159219871573"/>
-          <c:w val="0.131700277354781"/>
+          <c:w val="0.111120502196994"/>
           <c:h val="0.196275069052529"/>
         </c:manualLayout>
       </c:layout>
@@ -2619,7 +2649,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:f>Sheet1!$L$3:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2646,7 +2676,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>Sheet1!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3016,6 +3046,714 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU Naive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs GPU Binning</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0955065698752022"/>
+          <c:y val="0.0787541688505389"/>
+          <c:w val="0.866917939078277"/>
+          <c:h val="0.831349725869639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GPU with binning</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.190291774615417"/>
+                  <c:y val="0.413885959035832"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.603314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.733651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.13682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.05528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8744</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive GPU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="2.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.174322432353334"/>
+                  <c:y val="0.24323902576836"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.24518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.32251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.54351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.19988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.9359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>155.282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111072448"/>
+        <c:axId val="-2123173712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2111072448"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="512000.0"/>
+          <c:min val="1000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2123173712"/>
+        <c:crossesAt val="0.01"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2123173712"/>
+        <c:scaling>
+          <c:logBase val="2.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2111072448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73007402361131"/>
+          <c:y val="0.64722422248062"/>
+          <c:w val="0.195074717265446"/>
+          <c:h val="0.194005483551873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3176,6 +3914,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5240,20 +6018,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>611091</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251258</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5276,14 +6570,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>782585</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>117476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5306,16 +6600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>681764</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>777013</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>31752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>515839</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>611088</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>105835</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5338,16 +6632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215074</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77491</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5363,6 +6657,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>611090</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5634,26 +6960,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5670,13 +6996,13 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -5685,10 +7011,16 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>250</v>
       </c>
@@ -5701,26 +7033,26 @@
       <c r="E3">
         <v>2.3236E-2</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>500</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>5.8925999999999999E-2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>5.8925999999999999E-2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.65196500000000002</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>500</v>
       </c>
@@ -5733,23 +7065,23 @@
       <c r="E4">
         <v>4.9006000000000001E-2</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>4.7024999999999997E-2</v>
-      </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
+        <v>4.7024999999999997E-2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <v>0.83775900000000003</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -5762,23 +7094,23 @@
       <c r="E5">
         <v>3.8799E-2</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>3.4368000000000003E-2</v>
-      </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5">
+        <v>3.4368000000000003E-2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
         <v>1.077</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>16000</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2000</v>
       </c>
@@ -5791,23 +7123,29 @@
       <c r="E6">
         <v>6.2072000000000002E-2</v>
       </c>
+      <c r="G6">
+        <v>1.24518</v>
+      </c>
       <c r="H6">
+        <v>0.60331400000000002</v>
+      </c>
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3.4854999999999997E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>1.29095</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>32000</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4000</v>
       </c>
@@ -5820,23 +7158,29 @@
       <c r="E7">
         <v>0.44025999999999998</v>
       </c>
+      <c r="G7">
+        <v>2.3225099999999999</v>
+      </c>
       <c r="H7">
+        <v>0.73365100000000005</v>
+      </c>
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>4.5162000000000001E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>16</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>2.5513499999999998</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>64000</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>8000</v>
       </c>
@@ -5849,23 +7193,29 @@
       <c r="E8">
         <v>0.212837</v>
       </c>
+      <c r="G8">
+        <v>4.5435100000000004</v>
+      </c>
       <c r="H8">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>6.046E-2</v>
+        <v>1.09666</v>
       </c>
       <c r="J8">
         <v>24</v>
       </c>
       <c r="K8">
+        <v>6.046E-2</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
         <v>2.5388500000000001</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>96000</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>16000</v>
       </c>
@@ -5879,16 +7229,22 @@
         <v>0.44569900000000001</v>
       </c>
       <c r="G9">
+        <v>9.1998800000000003</v>
+      </c>
+      <c r="H9">
+        <v>1.84999</v>
+      </c>
+      <c r="I9">
         <v>2000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.30321999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>32000</v>
       </c>
@@ -5898,14 +7254,20 @@
       <c r="E10">
         <v>0.88995100000000005</v>
       </c>
+      <c r="G10">
+        <v>37.935899999999997</v>
+      </c>
       <c r="H10">
+        <v>4.1368200000000002</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.19189800000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>64000</v>
       </c>
@@ -5915,14 +7277,20 @@
       <c r="E11">
         <v>1.9687699999999999</v>
       </c>
+      <c r="G11">
+        <v>155.28200000000001</v>
+      </c>
       <c r="H11">
+        <v>8.0552799999999998</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.121568</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>128000</v>
       </c>
@@ -5933,13 +7301,16 @@
         <v>6.7988099999999996</v>
       </c>
       <c r="H12">
+        <v>15.8744</v>
+      </c>
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>9.8206000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>256000</v>
       </c>
@@ -5950,179 +7321,183 @@
         <v>17.0945</v>
       </c>
       <c r="H13">
+        <v>34.566600000000001</v>
+      </c>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>6.8962999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J14">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.10785500000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I15">
         <v>8000</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.42337</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H16">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.840638</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H17">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J17">
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.49172100000000002</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H18">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J18">
         <v>6</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.37850699999999998</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H19">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J19">
         <v>12</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.21096899999999999</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H20">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J20">
         <v>24</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.25156699999999999</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G21">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I21">
         <v>32000</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>7.4781399999999998</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H22">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>4.1981400000000004</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H23">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>2.3820700000000001</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H24">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J24">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1.6941900000000001</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H25">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J25">
         <v>12</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.88149599999999995</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H26">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J26">
         <v>24</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.86941199999999996</v>
       </c>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G27">
+    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I27">
         <v>128000</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>65.960800000000006</v>
       </c>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H28">
+    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>35.008699999999997</v>
       </c>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H29">
+    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>18.760899999999999</v>
       </c>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H30">
+    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J30">
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>12.991899999999999</v>
       </c>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H31">
+    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J31">
         <v>12</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>6.7697900000000004</v>
       </c>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="H32">
+    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="J32">
         <v>24</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>4.1833600000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>